--- a/ldh_apitest/data/kcb.xlsx
+++ b/ldh_apitest/data/kcb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -61,16 +61,40 @@
     <t>https://gateway-dev.kcbxgk.com/sso/api/login</t>
   </si>
   <si>
-    <t>{"Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>{"funcVersion":"${funcVersion}","operator":"${operator}","pageData": 20"pageNumber":1,"searchKey":{"shopAccount": ""},"ticket": "${ticket}"}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>state':'000001'</t>
+    <t>{"loginText":"lidehui2","loginPass":"123123aa"}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","Accept": "application/json, text/plain, */*"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>"success":"true"</t>
+  </si>
+  <si>
+    <t>api_02</t>
+  </si>
+  <si>
+    <t>[正常场景]登录失败-密码错误</t>
+  </si>
+  <si>
+    <t>{"loginText":"lidehui2","loginPass":"1123123aa"}</t>
+  </si>
+  <si>
+    <t>"success":"false"</t>
+  </si>
+  <si>
+    <t>api_03</t>
+  </si>
+  <si>
+    <t>[正常场景]登录失败-账号不存在</t>
+  </si>
+  <si>
+    <t>{"loginText":"li1dehui2","loginPass":"1123123aa"}</t>
+  </si>
+  <si>
+    <t>"success":"false1"</t>
   </si>
 </sst>
 </file>
@@ -78,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +125,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,67 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -198,6 +168,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -206,31 +237,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,61 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,32 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +474,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,24 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,6 +525,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,7 +580,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,124 +589,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -698,9 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1021,19 +1042,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="47.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="50.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="41.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="28.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1071,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="86.4" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="130" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,10 +1107,10 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1096,13 +1119,73 @@
       <c r="I2" s="1">
         <v>200</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="130" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="130" customHeight="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://gateway-dev.kcbxgk.com/sso/api/login" tooltip="https://gateway-dev.kcbxgk.com/sso/api/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://gateway-dev.kcbxgk.com/sso/api/login" tooltip="https://gateway-dev.kcbxgk.com/sso/api/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://gateway-dev.kcbxgk.com/sso/api/login" tooltip="https://gateway-dev.kcbxgk.com/sso/api/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ldh_apitest/data/kcb.xlsx
+++ b/ldh_apitest/data/kcb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>{"loginText":"li1dehui2","loginPass":"1123123aa"}</t>
-  </si>
-  <si>
-    <t>"success":"false1"</t>
   </si>
 </sst>
 </file>
@@ -102,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,12 +122,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -139,14 +158,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -168,67 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -239,22 +229,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,72 +266,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,114 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +457,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,24 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +505,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,19 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,19 +577,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,112 +598,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1041,7 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1175,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
